--- a/YAML-CREATION/WLD-RODENT/wld-rodent.xlsx
+++ b/YAML-CREATION/WLD-RODENT/wld-rodent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\WLD-RODENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947CADB8-DA70-4B94-B952-8ED916812027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F1BA28-CFDC-441E-808C-DFDA801C24F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="100">
   <si>
     <t>dbo.section</t>
   </si>
@@ -236,9 +236,6 @@
     <t>HLI-7</t>
   </si>
   <si>
-    <t>2 = INACTIVE 3=ACTIVE</t>
-  </si>
-  <si>
     <t>water_leak_cable_distance_sensor_01</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
     <t>transducer_failed_alarm_01</t>
   </si>
   <si>
-    <t>0 = INACTIVE 1= ACTIVE</t>
-  </si>
-  <si>
     <t>transducer_failed_alarm_02</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>transducer_failed_alarm_11</t>
   </si>
   <si>
-    <t>metres</t>
-  </si>
-  <si>
     <t>2023-01-30T09:03:43Z</t>
   </si>
   <si>
@@ -335,7 +326,13 @@
     <t>03090382-3cc0-2b68-66b1-0c5bd33da105</t>
   </si>
   <si>
-    <t>12344</t>
+    <t>true=ACTIVE false=INACTIVE</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>metres: metres</t>
   </si>
 </sst>
 </file>
@@ -451,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,6 +474,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,9 +980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1079,19 +1079,19 @@
     </row>
     <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1103,32 +1103,30 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
         <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>100</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P2" s="17"/>
       <c r="S2" s="13"/>
       <c r="T2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -1138,16 +1136,16 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1159,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
         <v>53</v>
@@ -1171,17 +1169,15 @@
         <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s">
         <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P3">
-        <v>12344</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P3" s="17"/>
       <c r="T3" s="6" t="s">
         <v>66</v>
       </c>
@@ -1262,9 +1258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G841"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1306,14 +1302,14 @@
       <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>55</v>
@@ -1325,18 +1321,18 @@
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>92</v>
+      <c r="B3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1344,14 +1340,14 @@
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>56</v>
@@ -1363,18 +1359,18 @@
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>92</v>
+      <c r="B5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1382,14 +1378,14 @@
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>57</v>
@@ -1401,18 +1397,18 @@
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>92</v>
+      <c r="B7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -1420,14 +1416,14 @@
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>58</v>
@@ -1439,18 +1435,18 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>92</v>
+      <c r="B9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G9" s="16"/>
     </row>
@@ -1458,14 +1454,14 @@
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1477,18 +1473,18 @@
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>92</v>
+      <c r="B11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1496,14 +1492,14 @@
       <c r="A12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>60</v>
@@ -1515,18 +1511,18 @@
       <c r="A13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>92</v>
+      <c r="B13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1534,14 +1530,14 @@
       <c r="A14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>61</v>
@@ -1553,18 +1549,18 @@
       <c r="A15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>92</v>
+      <c r="B15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1572,14 +1568,14 @@
       <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>62</v>
@@ -1591,18 +1587,18 @@
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>92</v>
+      <c r="B17" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1610,14 +1606,14 @@
       <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>63</v>
@@ -1629,18 +1625,18 @@
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>92</v>
+      <c r="B19" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1648,14 +1644,14 @@
       <c r="A20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>64</v>
@@ -1668,17 +1664,17 @@
         <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -1693,7 +1689,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>65</v>
@@ -1706,225 +1702,225 @@
         <v>66</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>

--- a/YAML-CREATION/WLD-RODENT/wld-rodent.xlsx
+++ b/YAML-CREATION/WLD-RODENT/wld-rodent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\WLD-RODENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F1BA28-CFDC-441E-808C-DFDA801C24F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E206CF20-22FD-4056-A508-80B32BC84662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -474,9 +474,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,9 +1255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G841"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1302,10 +1299,10 @@
       <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1321,10 +1318,10 @@
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="7"/>
@@ -1340,10 +1337,10 @@
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1359,10 +1356,10 @@
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="7"/>
@@ -1378,10 +1375,10 @@
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1397,10 +1394,10 @@
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="7"/>
@@ -1416,10 +1413,10 @@
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1435,10 +1432,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="7"/>
@@ -1454,10 +1451,10 @@
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1473,10 +1470,10 @@
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="7"/>
@@ -1492,10 +1489,10 @@
       <c r="A12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1511,10 +1508,10 @@
       <c r="A13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="7"/>
@@ -1530,10 +1527,10 @@
       <c r="A14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1549,10 +1546,10 @@
       <c r="A15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="7"/>
@@ -1568,10 +1565,10 @@
       <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1587,10 +1584,10 @@
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D17" s="7"/>
@@ -1606,10 +1603,10 @@
       <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1625,10 +1622,10 @@
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="7"/>
@@ -1644,10 +1641,10 @@
       <c r="A20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="7" t="s">
